--- a/ramp/input_files/Room inputfiles/Computer Lab/Computer Lab.xlsx
+++ b/ramp/input_files/Room inputfiles/Computer Lab/Computer Lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Thesis\My RAMP model\ramp\input_files\Room inputfiles\Computer Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Thesis\My RAMP model\Master's Thesis\ramp\input_files\Room inputfiles\Computer Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2A9FE-E54F-4942-AD2E-5758740861FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC3292A-CC72-4BCB-B4C9-95D61F125707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WS_Break" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -494,15 +494,11 @@
       <c r="I2" s="2">
         <v>120</v>
       </c>
-      <c r="J2" s="2">
-        <v>120</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2">
         <v>90</v>
       </c>
-      <c r="L2" s="2">
-        <v>90</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -522,15 +518,11 @@
       <c r="I3" s="2">
         <v>120</v>
       </c>
-      <c r="J3" s="2">
-        <v>120</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>90</v>
       </c>
-      <c r="L3" s="2">
-        <v>90</v>
-      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -544,21 +536,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <v>120</v>
       </c>
-      <c r="J4" s="2">
-        <v>120</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2">
         <v>90</v>
       </c>
-      <c r="L4" s="2">
-        <v>90</v>
-      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -572,21 +562,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>120</v>
       </c>
-      <c r="J5" s="2">
-        <v>120</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>90</v>
       </c>
-      <c r="L5" s="2">
-        <v>90</v>
-      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -600,21 +588,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>120</v>
       </c>
-      <c r="J6" s="2">
-        <v>120</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>90</v>
       </c>
-      <c r="L6" s="2">
-        <v>90</v>
-      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -930,7 +916,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1003,17 +989,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
-        <v>250</v>
-      </c>
-      <c r="J2" s="2">
-        <v>110</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2">
         <v>90</v>
       </c>
-      <c r="L2" s="2">
-        <v>60</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -1031,17 +1013,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
-        <v>315</v>
-      </c>
-      <c r="J3" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>90</v>
       </c>
-      <c r="L3" s="2">
-        <v>90</v>
-      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -1055,21 +1033,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
-        <v>315</v>
-      </c>
-      <c r="J4" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2">
         <v>90</v>
       </c>
-      <c r="L4" s="2">
-        <v>90</v>
-      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -1083,21 +1059,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
-        <v>315</v>
-      </c>
-      <c r="J5" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>90</v>
       </c>
-      <c r="L5" s="2">
-        <v>90</v>
-      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -1111,21 +1085,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
-        <v>315</v>
-      </c>
-      <c r="J6" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>90</v>
       </c>
-      <c r="L6" s="2">
-        <v>90</v>
-      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -1145,15 +1117,11 @@
       <c r="I7" s="2">
         <v>60</v>
       </c>
-      <c r="J7" s="2">
-        <v>60</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>30</v>
       </c>
-      <c r="L7" s="2">
-        <v>30</v>
-      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2"/>
@@ -1207,7 +1175,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1280,17 +1248,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
-        <v>315</v>
-      </c>
-      <c r="J2" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2">
         <v>90</v>
       </c>
-      <c r="L2" s="2">
-        <v>90</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -1308,17 +1272,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
-        <v>315</v>
-      </c>
-      <c r="J3" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>90</v>
       </c>
-      <c r="L3" s="2">
-        <v>90</v>
-      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -1332,21 +1292,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
-        <v>315</v>
-      </c>
-      <c r="J4" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2">
         <v>90</v>
       </c>
-      <c r="L4" s="2">
-        <v>90</v>
-      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -1360,21 +1318,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
-        <v>315</v>
-      </c>
-      <c r="J5" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>90</v>
       </c>
-      <c r="L5" s="2">
-        <v>90</v>
-      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -1388,21 +1344,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
-        <v>315</v>
-      </c>
-      <c r="J6" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>90</v>
       </c>
-      <c r="L6" s="2">
-        <v>90</v>
-      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -1422,15 +1376,11 @@
       <c r="I7" s="2">
         <v>60</v>
       </c>
-      <c r="J7" s="2">
-        <v>60</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>30</v>
       </c>
-      <c r="L7" s="2">
-        <v>30</v>
-      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2"/>
@@ -1484,7 +1434,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1556,13 +1506,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2">
-        <v>180</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>90</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
@@ -1597,7 +1543,9 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1617,7 +1565,9 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1637,16 +1587,14 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2">
-        <v>180</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>90</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
@@ -1664,13 +1612,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>60</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>30</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
@@ -1724,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C860CA3-B6BB-4DC3-8BF1-D8AA9C371754}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1798,17 +1742,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
-        <v>75</v>
-      </c>
-      <c r="J2" s="2">
-        <v>75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2">
-        <v>30</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -1828,15 +1768,11 @@
       <c r="I3" s="2">
         <v>120</v>
       </c>
-      <c r="J3" s="2">
-        <v>120</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>90</v>
       </c>
-      <c r="L3" s="2">
-        <v>90</v>
-      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -1850,21 +1786,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <v>120</v>
       </c>
-      <c r="J4" s="2">
-        <v>120</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2">
         <v>90</v>
       </c>
-      <c r="L4" s="2">
-        <v>90</v>
-      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -1878,21 +1812,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>120</v>
       </c>
-      <c r="J5" s="2">
-        <v>120</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>90</v>
       </c>
-      <c r="L5" s="2">
-        <v>90</v>
-      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -1906,21 +1838,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>120</v>
       </c>
-      <c r="J6" s="2">
-        <v>120</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>90</v>
       </c>
-      <c r="L6" s="2">
-        <v>90</v>
-      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -1998,7 +1928,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2071,17 +2001,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
-        <v>200</v>
-      </c>
-      <c r="J2" s="2">
-        <v>75</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2">
         <v>90</v>
       </c>
-      <c r="L2" s="2">
-        <v>30</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -2099,17 +2025,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
-        <v>315</v>
-      </c>
-      <c r="J3" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>90</v>
       </c>
-      <c r="L3" s="2">
-        <v>90</v>
-      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -2123,21 +2045,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
-        <v>315</v>
-      </c>
-      <c r="J4" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2">
         <v>90</v>
       </c>
-      <c r="L4" s="2">
-        <v>90</v>
-      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -2151,21 +2071,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
-        <v>315</v>
-      </c>
-      <c r="J5" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>90</v>
       </c>
-      <c r="L5" s="2">
-        <v>90</v>
-      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -2179,21 +2097,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
-        <v>315</v>
-      </c>
-      <c r="J6" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>90</v>
       </c>
-      <c r="L6" s="2">
-        <v>90</v>
-      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -2213,15 +2129,11 @@
       <c r="I7" s="2">
         <v>60</v>
       </c>
-      <c r="J7" s="2">
-        <v>60</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>30</v>
       </c>
-      <c r="L7" s="2">
-        <v>30</v>
-      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2"/>
@@ -2275,7 +2187,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2348,17 +2260,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
-        <v>150</v>
-      </c>
-      <c r="J2" s="2">
-        <v>60</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2">
         <v>90</v>
       </c>
-      <c r="L2" s="2">
-        <v>30</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -2376,17 +2284,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
-        <v>315</v>
-      </c>
-      <c r="J3" s="2">
-        <v>135</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>90</v>
       </c>
-      <c r="L3" s="2">
-        <v>90</v>
-      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -2400,21 +2304,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <v>315</v>
       </c>
-      <c r="J4" s="2">
-        <v>135</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2">
         <v>90</v>
       </c>
-      <c r="L4" s="2">
-        <v>90</v>
-      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -2428,21 +2330,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>315</v>
       </c>
-      <c r="J5" s="2">
-        <v>135</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>90</v>
       </c>
-      <c r="L5" s="2">
-        <v>90</v>
-      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -2456,21 +2356,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>315</v>
       </c>
-      <c r="J6" s="2">
-        <v>135</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>90</v>
       </c>
-      <c r="L6" s="2">
-        <v>90</v>
-      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -2490,15 +2388,11 @@
       <c r="I7" s="2">
         <v>60</v>
       </c>
-      <c r="J7" s="2">
-        <v>60</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>30</v>
       </c>
-      <c r="L7" s="2">
-        <v>30</v>
-      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2"/>
@@ -2551,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE7E755-A0FE-48DF-94F5-D612D689B241}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2624,13 +2518,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2">
-        <v>90</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>90</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
@@ -2665,7 +2555,9 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2685,7 +2577,9 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2705,16 +2599,14 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2">
-        <v>180</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>90</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
@@ -2732,13 +2624,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>60</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>30</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
   </sheetData>
